--- a/biology/Zoologie/Gnathodontidae/Gnathodontidae.xlsx
+++ b/biology/Zoologie/Gnathodontidae/Gnathodontidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Gnathodontidae  forment une famille éteinte de conodontes ozarkodinides.
-Les espèces du seul genre de la famille, Icriodus, ont été trouvées dans des terrains datant du Silurien au Carbonifère[2].
+Les espèces du seul genre de la famille, Icriodus, ont été trouvées dans des terrains datant du Silurien au Carbonifère.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Homonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Selon The Paleobiology database (site consulté le 16 janvier 2021), le nom Gnathodontidae peut aussi faire référence à:
 †Gnathodontidae Broom, un synonyme de †Mesosuchidae Haughton, 1924 (reptiles rhynchosaures)
@@ -544,7 +558,9 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">o Conodonta (éteint)
 └─o Ozarkodinida (éteint)
